--- a/Тестовые сценарии (тепловизор+локал).xlsx
+++ b/Тестовые сценарии (тепловизор+локал).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\Контраст\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5730034A-CECF-4F3D-8A51-25D0137A6C0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59941A72-DA6F-4502-A62F-5B753FF82526}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9990" xr2:uid="{13E3AFFA-99BC-4A72-A9C1-8EB9A3181F0F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ID Сценария</t>
   </si>
@@ -53,13 +53,6 @@
   </si>
   <si>
     <t>Проверить форму захвата</t>
-  </si>
-  <si>
-    <t>Проверить отсутствие графических элементов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Отсутствие в списке «Настройка» пункта «Зритель-Каскад»
-2. Отсутствие демо панели в главной форме </t>
   </si>
   <si>
     <t>Проверить работу горячих клавиш в АРМ ОПК</t>
@@ -105,13 +98,6 @@
     <t>Проверить верификацию</t>
   </si>
   <si>
-    <t>1. Верификация в главной форме АРМ ОПК
-2. Верификация после повторного захвата в  АРМ ОПК
-3. Верификация после повторного считывания документа в АРМ ОПК
-4. Верификация после закрытия формы захвата
-5. Верификация после захвата в форме захвата</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -134,53 +120,26 @@
     <t xml:space="preserve">CIR-T S2.3 </t>
   </si>
   <si>
+    <t xml:space="preserve">CIR-T S2.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIR-T S2.5 </t>
+  </si>
+  <si>
+    <t>CIR-T S2.7</t>
+  </si>
+  <si>
+    <t>CIR-T S2.6</t>
+  </si>
+  <si>
     <t>1. CIR-T0019
-2. CIR-T0020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIR-T S2.4 </t>
-  </si>
-  <si>
-    <t>1. CIR-T0021
-2. CIR-T0022
-3. CIR-T0023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIR-T S2.5 </t>
-  </si>
-  <si>
-    <t>1. CIR-T0024
-2. CIR-T0025
-3. CIR-T0026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIR-T S2.6 </t>
-  </si>
-  <si>
-    <t>CIR-T S2.7</t>
-  </si>
-  <si>
-    <t>CIR-T S2.8</t>
-  </si>
-  <si>
-    <t>1. CIR-T0010
-2. CIR-T0011
-3. CIR-T0013
-4. CIR-T0014
-5. CIR-T0015
-6. CIR-T0030
-7. CIR-T0031
-8. CIR-T0032
-9. CIR-T0033
-10. CIR-T0034
-11. CIR-T0035
-12. CIR-T0036
-13. CIR-T0043
-14. CIR-T0044
-15. CIR-T0045
-16. CIR-T0046
-17. CIR-T0052
-18. CIR-T0053</t>
+2. CIR-T0020
+3. CIR-T0021</t>
+  </si>
+  <si>
+    <t>1. CIR-T0022
+2. CIR-T0023
+3. CIR-T0024</t>
   </si>
   <si>
     <t>1. CIR-T0006
@@ -191,27 +150,36 @@
 6. CIR-T0016
 7. CIR-T0017
 8. CIR-T0018
-9. CIR-T0027
-10. CIR-T0028
-11. CIR-T0029
-12. CIR-T0042</t>
-  </si>
-  <si>
-    <t>1. CIR-T0037
-2. CIR-T0038
-3. CIR-T0039
-4. CIR-T0040
-5. CIR-T0041</t>
-  </si>
-  <si>
-    <t>1. CIR-T0047
-2. CIR-T0048
-3. CIR-T0049
-4. CIR-T0050
-5. CIR-T0051</t>
-  </si>
-  <si>
-    <t>1. Вызов формы захвата с наличием захваченного кадра
+9. CIR-T0025
+10. CIR-T0026
+11. CIR-T0027
+12. CIR-T0040</t>
+  </si>
+  <si>
+    <t>1. CIR-T0035
+2. CIR-T0036
+3. CIR-T0037
+4. CIR-T0038
+5. CIR-T0039</t>
+  </si>
+  <si>
+    <t>1. CIR-T0045
+2. CIR-T0046
+3. CIR-T0047
+4. CIR-T0048
+5. CIR-T0049
+6. CIR-T0050</t>
+  </si>
+  <si>
+    <t>1. Верификация в главной форме АРМ ОПК
+2. Верификация после повторного захвата в  АРМ ОПК
+3. Верификация после повторного считывания документа в АРМ ОПК
+4. Верификация после закрытия формы захвата
+5. Верификация после захвата в форме захвата
+6.Верификация с инфракрасным кадром</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Вызов формы захвата с наличием захваченного кадра
 2. Вызов формы захвата без захваченного кадра
 3. Нажатие по кнопке «Старт F5» в форме захвата
 4. Нажатие по кнопке «Стоп F6» в форме захвата
@@ -228,7 +196,33 @@
 15. Закрытие формы захвата во время захвата
 16. Закрытие формы захвата после нажатия на кнопку «Стоп F6» 
 17. Захват кадра на расстоянии в форме захвата
-18. Захват кадра на большом расстоянии в форме захвата</t>
+18. Захват кадра на большом расстоянии в форме захвата
+19. Два нажатия подряд по кнопке «Стоп F6»
+20. Закрыть инфракрасный канал
+21. Закрыть видимый канал </t>
+  </si>
+  <si>
+    <t>1. CIR-T0010
+2. CIR-T0011
+3. CIR-T0013
+4. CIR-T0014
+5. CIR-T0015
+6. CIR-T0028
+7. CIR-T0029
+8. CIR-T0030
+9. CIR-T0031
+10. CIR-T0032
+11. CIR-T0033
+12. CIR-T0034
+13. CIR-T0041
+14. CIR-T0042
+15. CIR-T0043
+16. CIR-T0044
+17. CIR-T0051
+18. CIR-T0052
+19. CIR-T0053
+20. CIR-T0054
+21. CIR-T0055</t>
   </si>
 </sst>
 </file>
@@ -267,7 +261,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,12 +271,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -325,9 +313,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
@@ -645,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DDC8C5-BDD2-4180-BFE1-6F2E2D051BB8}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +646,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -680,13 +666,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -697,24 +683,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="298.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="347.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -723,23 +709,23 @@
         <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -748,7 +734,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -760,63 +746,54 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>

--- a/Тестовые сценарии (тепловизор+локал).xlsx
+++ b/Тестовые сценарии (тепловизор+локал).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\Контраст\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59941A72-DA6F-4502-A62F-5B753FF82526}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616ACA24-E1FC-4CD5-A280-B6B24634121D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9990" xr2:uid="{13E3AFFA-99BC-4A72-A9C1-8EB9A3181F0F}"/>
   </bookViews>
@@ -42,13 +42,6 @@
     <t xml:space="preserve">Проверка инициализации </t>
   </si>
   <si>
-    <t>1. Инициализация «Зритель -Каскад»
-2. Деинициализация «Зритель -Каскад»
-3. Реинициализация «Зритель -Каскад»
-4. Появление окна с описанием ошибки, когда отключена камера
-5. Появление окна с описанием ошибки, когда нет связи с сервисом</t>
-  </si>
-  <si>
     <t>Проверить работу «Зритель-Контраст» в АРМ ОПК</t>
   </si>
   <si>
@@ -78,20 +71,6 @@
 5. Инициализация «Контраст-сервиса» </t>
   </si>
   <si>
-    <t>1. Работа «Зритель-контраст» в «АРМ ОПК» 
-2. Захват кадра в главной форме «АРМ ОПК»
-3. Захват кадра на границе окна «Видеокамера»
-4. Отработка таймаута в АРМ ОПК
-5. Вызов формы захвата во время захвата в АРМ ОПК
-6. Захват с одновременным сканированием документа с ИС
-7. Захват с одновременным сканированием документа без ИС
-8. Отсутствие функции удаления фотографии при нажатии по кнопке «Изменить» 
-9. Захват кадра на расстоянии в главной форме АРМ ОПК
-10. Захват кадра на большом расстоянии в главной форме АРМ ОПК
-11. Захват кадра с несколькими лицами, в главной форме АРМ ОПК
-12. Захват кадра на последних секундах таймаута</t>
-  </si>
-  <si>
     <t>Проверить логи</t>
   </si>
   <si>
@@ -102,13 +81,6 @@
   </si>
   <si>
     <t xml:space="preserve">CIR-T S2.0 </t>
-  </si>
-  <si>
-    <t>1. CIR-T0001
-2. CIR-T0002
-3. CIR-T0003
-4. CIR-T0004
-5. CIR-T0005</t>
   </si>
   <si>
     <t>CIR-T S2.1</t>
@@ -161,45 +133,6 @@
 3. CIR-T0037
 4. CIR-T0038
 5. CIR-T0039</t>
-  </si>
-  <si>
-    <t>1. CIR-T0045
-2. CIR-T0046
-3. CIR-T0047
-4. CIR-T0048
-5. CIR-T0049
-6. CIR-T0050</t>
-  </si>
-  <si>
-    <t>1. Верификация в главной форме АРМ ОПК
-2. Верификация после повторного захвата в  АРМ ОПК
-3. Верификация после повторного считывания документа в АРМ ОПК
-4. Верификация после закрытия формы захвата
-5. Верификация после захвата в форме захвата
-6.Верификация с инфракрасным кадром</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Вызов формы захвата с наличием захваченного кадра
-2. Вызов формы захвата без захваченного кадра
-3. Нажатие по кнопке «Старт F5» в форме захвата
-4. Нажатие по кнопке «Стоп F6» в форме захвата
-5. Нажатие по кнопке «Закрыть Esc» в форме захвата
-6. Захват кадра с несколькими лицами в форме захвата
-7. Выбор другого захваченного кадра
-8. Выбор инфракрасного кадра как основного
-9. Захват кадра на границе области с видеопотоком в форме захвата
-10. Считывание документа с ИС, в открытой форме захвата
-11. Считывание документа без ИС, в открытой форме захвата
-12. Повторное считывание документа с открытой формой захвата во время захвата
-13. Захват кадра на последних секундах таймаута в форме захвата
-14. Захват после таймаута в форме захвата
-15. Закрытие формы захвата во время захвата
-16. Закрытие формы захвата после нажатия на кнопку «Стоп F6» 
-17. Захват кадра на расстоянии в форме захвата
-18. Захват кадра на большом расстоянии в форме захвата
-19. Два нажатия подряд по кнопке «Стоп F6»
-20. Закрыть инфракрасный канал
-21. Закрыть видимый канал </t>
   </si>
   <si>
     <t>1. CIR-T0010
@@ -224,12 +157,147 @@
 20. CIR-T0054
 21. CIR-T0055</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. CIR-T0001
+2. CIR-T0002
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3. CIR-T0003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+4. CIR-T0004
+5. CIR-T0005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. CIR-T0045
+2. CIR-T0046
+3. CIR-T0047
+4. CIR-T0048
+5. CIR-T0049
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>6. CIR-T0050</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Верификация в главной форме АРМ ОПК
+2. Верификация после повторного захвата в  АРМ ОПК
+3. Верификация после повторного считывания документа в АРМ ОПК
+4. Верификация после закрытия формы захвата
+5. Верификация после захвата в форме захвата
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>6.Верификация с инфракрасным кадром</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Вызов формы захвата с наличием захваченного кадра
+2. Вызов формы захвата без захваченного кадра
+3. Нажатие по кнопке «Старт F5» в форме захвата
+4. Нажатие по кнопке «Стоп F6» в форме захвата
+5. Нажатие по кнопке «Закрыть Esc» в форме захвата
+6. Захват кадра с несколькими лицами в форме захвата
+7. Выбор другого захваченного кадра
+8. Выбор инфракрасного кадра как основного
+9. Захват кадра на границе видеопотока в форме захвата
+10. Считывание документа с ИС, в открытой форме захвата
+11. Считывание документа без ИС, в открытой форме захвата
+12. Повторное считывание документа с открытой формой захвата во время захвата
+13. Захват кадра на последних секундах таймаута в форме захвата
+14. Захват после таймаута в форме захвата
+15. Закрытие формы захвата во время захвата
+16. Закрытие формы захвата после нажатия на кнопку «Стоп F6» 
+17. Захват кадра на расстоянии в форме захвата
+18. Захват кадра на большом расстоянии в форме захвата
+19. Два нажатия подряд по кнопке «Стоп F6»
+20. Закрыть инфракрасный канал
+21. Закрыть видимый канал </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Инициализация «Зритель - Каскад»
+2. Деинициализация «Зритель - Каскад»
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3. Реинициализация «Зритель - Каскад»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Появление окна с описанием ошибки, когда отключена камера
+5. Появление окна с описанием ошибки, когда нет связи с сервисом</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Работа «Зритель-контраст» в главной форме АРМ ОПК 
+2. Захват кадра в главной форме АРМ ОПК
+3. Захват кадра на границе окна «Видеокамера»
+4. Отработка таймаута в АРМ ОПК
+5. Вызов формы захвата во время захвата в АРМ ОПК
+6. Захват с одновременным сканированием документа с ИС
+7. Захват с одновременным сканированием документа без ИС
+8. Отсутствие функции удаления фотографии при нажатии по кнопке «Изменить» 
+9. Захват кадра на расстоянии в главной форме АРМ ОПК
+10. Захват кадра на большом расстоянии в главной форме АРМ ОПК
+11. Захват кадра с несколькими лицами, в главной форме АРМ ОПК
+12. Захват кадра на последних секундах таймаута</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +324,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -631,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DDC8C5-BDD2-4180-BFE1-6F2E2D051BB8}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +721,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -666,16 +741,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,16 +758,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="347.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,16 +775,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -717,16 +792,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -734,16 +809,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,16 +826,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,16 +843,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -785,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>

--- a/Тестовые сценарии (тепловизор+локал).xlsx
+++ b/Тестовые сценарии (тепловизор+локал).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\Контраст\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616ACA24-E1FC-4CD5-A280-B6B24634121D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E933A1E1-E93C-4FE1-907E-47DF0D84E729}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9990" xr2:uid="{13E3AFFA-99BC-4A72-A9C1-8EB9A3181F0F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>ID Сценария</t>
   </si>
@@ -98,133 +98,7 @@
     <t xml:space="preserve">CIR-T S2.5 </t>
   </si>
   <si>
-    <t>CIR-T S2.7</t>
-  </si>
-  <si>
     <t>CIR-T S2.6</t>
-  </si>
-  <si>
-    <t>1. CIR-T0019
-2. CIR-T0020
-3. CIR-T0021</t>
-  </si>
-  <si>
-    <t>1. CIR-T0022
-2. CIR-T0023
-3. CIR-T0024</t>
-  </si>
-  <si>
-    <t>1. CIR-T0006
-2. CIR-T0007
-3. CIR-T0008
-4. CIR-T0009
-5. CIR-T0012
-6. CIR-T0016
-7. CIR-T0017
-8. CIR-T0018
-9. CIR-T0025
-10. CIR-T0026
-11. CIR-T0027
-12. CIR-T0040</t>
-  </si>
-  <si>
-    <t>1. CIR-T0035
-2. CIR-T0036
-3. CIR-T0037
-4. CIR-T0038
-5. CIR-T0039</t>
-  </si>
-  <si>
-    <t>1. CIR-T0010
-2. CIR-T0011
-3. CIR-T0013
-4. CIR-T0014
-5. CIR-T0015
-6. CIR-T0028
-7. CIR-T0029
-8. CIR-T0030
-9. CIR-T0031
-10. CIR-T0032
-11. CIR-T0033
-12. CIR-T0034
-13. CIR-T0041
-14. CIR-T0042
-15. CIR-T0043
-16. CIR-T0044
-17. CIR-T0051
-18. CIR-T0052
-19. CIR-T0053
-20. CIR-T0054
-21. CIR-T0055</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. CIR-T0001
-2. CIR-T0002
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3. CIR-T0003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-4. CIR-T0004
-5. CIR-T0005</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. CIR-T0045
-2. CIR-T0046
-3. CIR-T0047
-4. CIR-T0048
-5. CIR-T0049
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>6. CIR-T0050</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Верификация в главной форме АРМ ОПК
-2. Верификация после повторного захвата в  АРМ ОПК
-3. Верификация после повторного считывания документа в АРМ ОПК
-4. Верификация после закрытия формы захвата
-5. Верификация после захвата в форме захвата
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>6.Верификация с инфракрасным кадром</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">1. Вызов формы захвата с наличием захваченного кадра
@@ -250,35 +124,6 @@
 21. Закрыть видимый канал </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Инициализация «Зритель - Каскад»
-2. Деинициализация «Зритель - Каскад»
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3. Реинициализация «Зритель - Каскад»</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-4. Появление окна с описанием ошибки, когда отключена камера
-5. Появление окна с описанием ошибки, когда нет связи с сервисом</t>
-    </r>
-  </si>
-  <si>
     <t>1. Работа «Зритель-контраст» в главной форме АРМ ОПК 
 2. Захват кадра в главной форме АРМ ОПК
 3. Захват кадра на границе окна «Видеокамера»
@@ -292,12 +137,189 @@
 11. Захват кадра с несколькими лицами, в главной форме АРМ ОПК
 12. Захват кадра на последних секундах таймаута</t>
   </si>
+  <si>
+    <t xml:space="preserve">1. Верификация в главной форме АРМ ОПК
+2. Верификация после повторного захвата в  АРМ ОПК
+3. Верификация после повторного считывания документа в АРМ ОПК
+4. Верификация после закрытия формы захвата
+5. Верификация после захвата в форме захвата
+</t>
+  </si>
+  <si>
+    <t>1. Инициализация «Зритель - Каскад»
+2. Деинициализация «Зритель - Каскад»
+3. Появление окна с описанием ошибки, когда отключена камера
+4. Появление окна с описанием ошибки, когда нет связи с сервисом</t>
+  </si>
+  <si>
+    <t>Проверить запуск программы</t>
+  </si>
+  <si>
+    <t>1. Запуск программы ContrastApp 
+2. Появление окна с описанием ошибки, когда нет связи с сервисом
+3. Появление окна с описанием ошибки, когда отключена камера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить вкладку съемка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Захват по нажатию кнопки «Старт [F5]»
+2. Захват кадра с несколькими пассажирами по нажатию кнопки «Старт [F5]»
+3. Защита кнопки «Старт [F5]» от нескольких нажатий
+4. Захват по нажатию кнопки «Захват [F6]»
+5. Захват кадра с несколькими пассажирами по нажатию кнопки «Захват [F6]»
+6. Защита кнопки «Захват [F6]» от нескольких нажатий
+7. Захват по нажатию кнопки «Автозахват [F7]»
+8. Захват кадра с несколькими пассажирами по нажатию кнопки «Автозахват [F7]»
+9. Защита кнопки «Автозахват [F7]» от нескольких нажатий
+10. Открытие формы захвата по нажатию кнопки «Форма захвата [F8]»
+11. Защита кнопки «Форма захвата [F8]» от нескольких нажатий
+12. Удаление снимков по нажатию кнопки «Удалить снимки [F9]»
+13. Сравнение изображений
+14. Отработка таймаута
+15. Пустой кадр после таймаута
+16. Таймаут после нажатия по кнопке «Автозахват [F7]»
+17. Пустой кадр после автозахвата
+</t>
+  </si>
+  <si>
+    <t>1. Вызов формы захвата с наличием захваченного кадра
+2. Захват в форме захвата после нажатия по кнопке «Старт [F5]»
+3. Захват кадра с несколькими лицами в форме захвата
+4. Захват кадра на границе видеопотока в форме захвата
+5. Отработка таймаута в форме захвата
+6. Защита кнопки «Старт [F5]» в форме захвата от нескольких нажатий
+7. Неактивная кнопка «Стоп [F6]» до начала захвата 
+8. Завершение захвата после нажатия кнопки «Стоп [F6]» 
+9. Защита кнопки «Стоп [F6]» в форме захвата от нескольких нажатий
+10. Выбор другого захваченного кадра 
+11. Закрытие формы захвата после нажатия по кнопке «Закрыть [Esc]»
+12. Закрытие формы захвата во время захвата
+13. Закрытие формы захвата после нажатия на кнопку «Стоп [F6]»</t>
+  </si>
+  <si>
+    <t>1. CIR-T0034
+2. CIR-T0035
+3. CIR-T0036
+4. CIR-T0037</t>
+  </si>
+  <si>
+    <t>1. CIR-T0051
+2. CIR-T0052
+3. CIR-T0053</t>
+  </si>
+  <si>
+    <t>1. CIR-T0054
+2. CIR-T0055
+3. CIR-T0056</t>
+  </si>
+  <si>
+    <t>1. CIR-T0067
+2. CIR-T0068
+3. CIR-T0069
+4. CIR-T0070
+5. CIR-T0071</t>
+  </si>
+  <si>
+    <t>1. CIR-T0038
+2. CIR-T0039
+3. CIR-T0040
+4. CIR-T0041
+5. CIR-T0044
+6. CIR-T0048
+7. CIR-T0049
+8. CIR-T0050
+9. CIR-T0057
+10. CIR-T0058
+11. CIR-T0059
+12. CIR-T0072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. CIR-T0077
+2. CIR-T0078
+3. CIR-T0079
+4. CIR-T0080
+5. CIR-T0081
+</t>
+  </si>
+  <si>
+    <t>1. CIR-T0042
+2. CIR-T0043
+3. CIR-T0045
+4. CIR-T0046
+5. CIR-T0047
+6. CIR-T0060
+7. CIR-T0061
+8. CIR-T0062
+9. CIR-T0063
+10. CIR-T0064
+11. CIR-T0065
+12. CIR-T0066
+13. CIR-T0073
+14. CIR-T0074
+15. CIR-T0075
+16. CIR-T0076
+17. CIR-T0082
+18. CIR-T0083
+19. CIR-T0084
+20. CIR-T0085
+21. CIR-T0086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIR-T S1.0 </t>
+  </si>
+  <si>
+    <t>1. CIR-T0001
+2. CIR-T0002
+3. CIR-T0003</t>
+  </si>
+  <si>
+    <t>CIR-T S1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. CIR-T0004
+2. CIR-T0005
+3. CIR-T0006
+4. CIR-T0007
+5. CIR-T0008
+6. CIR-T0009
+7. CIR-T0010
+8. CIR-T0011
+9. CIR-T0012
+10. CIR-T0013
+11. CIR-T0014
+12. CIR-T0015
+13. CIR-T0016
+14. CIR-T0017
+15. CIR-T0018
+16. CIR-T0019
+17. CIR-T0020
+</t>
+  </si>
+  <si>
+    <t>CIR-T S1.2</t>
+  </si>
+  <si>
+    <t>1. CIR-T0021
+2. CIR-T0022
+3. CIR-T0023
+4. CIR-T0024
+5. CIR-T0025
+6. CIR-T0026
+7. CIR-T0027
+8. CIR-T0028
+9. CIR-T0029
+10. CIR-T0030
+11. CIR-T0031
+12. CIR-T0032
+13. CIR-T0033</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,13 +346,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -377,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -389,6 +404,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
@@ -704,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DDC8C5-BDD2-4180-BFE1-6F2E2D051BB8}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,152 +754,195 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="331.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="347.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="252.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="347.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Тестовые сценарии (тепловизор+локал).xlsx
+++ b/Тестовые сценарии (тепловизор+локал).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\Контраст\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E933A1E1-E93C-4FE1-907E-47DF0D84E729}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C3AC3F-F7BC-48B4-9FC0-E96D4C502E1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9990" xr2:uid="{13E3AFFA-99BC-4A72-A9C1-8EB9A3181F0F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ID Сценария</t>
   </si>
@@ -39,13 +39,7 @@
     <t>Тест-кейсы</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка инициализации </t>
-  </si>
-  <si>
     <t>Проверить работу «Зритель-Контраст» в АРМ ОПК</t>
-  </si>
-  <si>
-    <t>Проверить форму захвата</t>
   </si>
   <si>
     <t>Проверить работу горячих клавиш в АРМ ОПК</t>
@@ -69,9 +63,6 @@
 3. Начало работы «Контраст» в логах
 4. Конец работы «Контраст» в логах
 5. Инициализация «Контраст-сервиса» </t>
-  </si>
-  <si>
-    <t>Проверить логи</t>
   </si>
   <si>
     <t>Проверить верификацию</t>
@@ -160,9 +151,6 @@
 3. Появление окна с описанием ошибки, когда отключена камера</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверить вкладку съемка </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Захват по нажатию кнопки «Старт [F5]»
 2. Захват кадра с несколькими пассажирами по нажатию кнопки «Старт [F5]»
 3. Защита кнопки «Старт [F5]» от нескольких нажатий
@@ -313,6 +301,21 @@
 11. CIR-T0031
 12. CIR-T0032
 13. CIR-T0033</t>
+  </si>
+  <si>
+    <t>Проверить вкладку съемка в тестовом приложении</t>
+  </si>
+  <si>
+    <t>Проверить форму захвата в тестовом приложении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка инициализации в Каскаде </t>
+  </si>
+  <si>
+    <t>Проверить форму захвата в Каскаде</t>
+  </si>
+  <si>
+    <t>Проверить наличие логов</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -403,10 +406,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
@@ -724,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DDC8C5-BDD2-4180-BFE1-6F2E2D051BB8}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,9 +743,9 @@
     <col min="5" max="5" width="68.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -759,16 +765,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="331.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -776,16 +782,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="252.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,16 +799,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -810,16 +816,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -827,16 +833,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="347.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,16 +850,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -861,16 +867,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -878,16 +884,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -895,16 +901,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,37 +918,38 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
